--- a/Founder Anlysis_with_path/founder_clusters_analysis.xlsx
+++ b/Founder Anlysis_with_path/founder_clusters_analysis.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="244">
   <si>
     <t>Cluster ID</t>
   </si>
@@ -143,57 +143,75 @@
     <t>Subcluster ID</t>
   </si>
   <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
     <t>3.5</t>
   </si>
   <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
     <t>1.6</t>
   </si>
   <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
     <t>1.2</t>
   </si>
   <si>
+    <t>4.6</t>
+  </si>
+  <si>
     <t>2.3</t>
   </si>
   <si>
+    <t>5.3</t>
+  </si>
+  <si>
     <t>2.2</t>
   </si>
   <si>
-    <t>4.6</t>
-  </si>
-  <si>
     <t>4.4</t>
   </si>
   <si>
     <t>3.1</t>
   </si>
   <si>
+    <t>4.7</t>
+  </si>
+  <si>
     <t>2.4</t>
   </si>
   <si>
@@ -218,31 +236,40 @@
     <t>4.1</t>
   </si>
   <si>
-    <t>93.9%</t>
+    <t>89.6%</t>
+  </si>
+  <si>
+    <t>80.0%</t>
+  </si>
+  <si>
+    <t>72.4%</t>
   </si>
   <si>
     <t>71.0%</t>
   </si>
   <si>
-    <t>68.6%</t>
-  </si>
-  <si>
-    <t>65.1%</t>
+    <t>65.0%</t>
   </si>
   <si>
     <t>61.1%</t>
   </si>
   <si>
-    <t>56.0%</t>
-  </si>
-  <si>
-    <t>45.1%</t>
-  </si>
-  <si>
-    <t>42.9%</t>
-  </si>
-  <si>
-    <t>36.8%</t>
+    <t>60.0%</t>
+  </si>
+  <si>
+    <t>54.8%</t>
+  </si>
+  <si>
+    <t>47.6%</t>
+  </si>
+  <si>
+    <t>46.2%</t>
+  </si>
+  <si>
+    <t>38.1%</t>
+  </si>
+  <si>
+    <t>35.0%</t>
   </si>
   <si>
     <t>33.3%</t>
@@ -251,93 +278,114 @@
     <t>31.9%</t>
   </si>
   <si>
+    <t>30.0%</t>
+  </si>
+  <si>
     <t>27.5%</t>
   </si>
   <si>
+    <t>25.0%</t>
+  </si>
+  <si>
     <t>22.0%</t>
   </si>
   <si>
+    <t>21.1%</t>
+  </si>
+  <si>
     <t>21.0%</t>
   </si>
   <si>
-    <t>17.8%</t>
+    <t>16.7%</t>
+  </si>
+  <si>
+    <t>12.3%</t>
+  </si>
+  <si>
+    <t>12.0%</t>
+  </si>
+  <si>
+    <t>9.8%</t>
+  </si>
+  <si>
+    <t>9.1%</t>
+  </si>
+  <si>
+    <t>8.6%</t>
+  </si>
+  <si>
+    <t>6.8%</t>
+  </si>
+  <si>
+    <t>6.5%</t>
+  </si>
+  <si>
+    <t>4.8%</t>
+  </si>
+  <si>
+    <t>3.2%</t>
+  </si>
+  <si>
+    <t>2.8%</t>
+  </si>
+  <si>
+    <t>18.7%</t>
+  </si>
+  <si>
+    <t>15.1%</t>
+  </si>
+  <si>
+    <t>14.8%</t>
+  </si>
+  <si>
+    <t>13.6%</t>
+  </si>
+  <si>
+    <t>12.8%</t>
   </si>
   <si>
     <t>12.5%</t>
   </si>
   <si>
-    <t>12.2%</t>
-  </si>
-  <si>
-    <t>9.8%</t>
-  </si>
-  <si>
-    <t>9.1%</t>
-  </si>
-  <si>
-    <t>8.6%</t>
-  </si>
-  <si>
-    <t>6.8%</t>
-  </si>
-  <si>
-    <t>5.6%</t>
-  </si>
-  <si>
-    <t>4.8%</t>
-  </si>
-  <si>
-    <t>3.2%</t>
-  </si>
-  <si>
-    <t>2.8%</t>
-  </si>
-  <si>
-    <t>19.6%</t>
-  </si>
-  <si>
-    <t>14.8%</t>
-  </si>
-  <si>
-    <t>14.3%</t>
-  </si>
-  <si>
-    <t>13.6%</t>
-  </si>
-  <si>
-    <t>12.8%</t>
-  </si>
-  <si>
-    <t>11.7%</t>
-  </si>
-  <si>
-    <t>9.4%</t>
-  </si>
-  <si>
-    <t>9.0%</t>
-  </si>
-  <si>
-    <t>7.7%</t>
+    <t>11.5%</t>
+  </si>
+  <si>
+    <t>10.0%</t>
+  </si>
+  <si>
+    <t>9.6%</t>
+  </si>
+  <si>
+    <t>7.3%</t>
   </si>
   <si>
     <t>7.0%</t>
   </si>
   <si>
+    <t>6.3%</t>
+  </si>
+  <si>
     <t>5.7%</t>
   </si>
   <si>
+    <t>5.2%</t>
+  </si>
+  <si>
     <t>4.6%</t>
   </si>
   <si>
     <t>4.4%</t>
   </si>
   <si>
-    <t>3.7%</t>
+    <t>3.5%</t>
   </si>
   <si>
     <t>2.6%</t>
   </si>
   <si>
+    <t>2.5%</t>
+  </si>
+  <si>
     <t>2.1%</t>
   </si>
   <si>
@@ -356,31 +404,28 @@
     <t>0.6%</t>
   </si>
   <si>
-    <t>3.9%</t>
-  </si>
-  <si>
-    <t>3.0%</t>
-  </si>
-  <si>
-    <t>3.5%</t>
-  </si>
-  <si>
-    <t>2.9%</t>
-  </si>
-  <si>
-    <t>2.2%</t>
-  </si>
-  <si>
-    <t>2.5%</t>
+    <t>5.4%</t>
+  </si>
+  <si>
+    <t>1.6%</t>
+  </si>
+  <si>
+    <t>1.5%</t>
+  </si>
+  <si>
+    <t>0.9%</t>
   </si>
   <si>
     <t>4.5%</t>
   </si>
   <si>
-    <t>0.9%</t>
-  </si>
-  <si>
-    <t>13.5%</t>
+    <t>0.5%</t>
+  </si>
+  <si>
+    <t>13.8%</t>
+  </si>
+  <si>
+    <t>0.4%</t>
   </si>
   <si>
     <t>4.1%</t>
@@ -389,19 +434,22 @@
     <t>10.8%</t>
   </si>
   <si>
+    <t>1.1%</t>
+  </si>
+  <si>
     <t>23.4%</t>
   </si>
   <si>
     <t>0.1%</t>
   </si>
   <si>
-    <t>0.4%</t>
-  </si>
-  <si>
-    <t>0.5%</t>
-  </si>
-  <si>
-    <t>10.0%</t>
+    <t>0.3%</t>
+  </si>
+  <si>
+    <t>0.2%</t>
+  </si>
+  <si>
+    <t>10.2%</t>
   </si>
   <si>
     <t>3.8%</t>
@@ -417,10 +465,24 @@
   </si>
   <si>
     <t>nasdaq_leadership ↑ (2.88)
-previous_startup_funding_experience_as_ceo ↑ (2.75)
+previous_startup_funding_experience_as_ceo ↑ (2.78)
+previous_startup_funding_experience_as_nonceo ↑ (1.51)
 investor_quality_prior_startup ↑ (1.80)
-previous_startup_funding_experience_as_nonceo ↑ (1.26)
-press_media_coverage_count ↑ (0.70)</t>
+press_media_coverage_count ↑ (0.78)</t>
+  </si>
+  <si>
+    <t>tier_1_VC_experience ↑ (0.99)
+previous_startup_funding_experience_as_ceo ↑ (3.44)
+VC_experience ↑ (1.55)
+investor_quality_prior_startup ↑ (1.80)
+nasdaq_leadership ↑ (1.60)</t>
+  </si>
+  <si>
+    <t>previous_startup_funding_experience_as_ceo ↑ (3.72)
+investor_quality_prior_startup ↑ (1.52)
+yoe ↓ (9.16)
+ceo_experience ↑ (0.40)
+childhood_entrepreneurship ↑ (0.21)</t>
   </si>
   <si>
     <t>previous_startup_funding_experience_as_ceo ↑ (3.72)
@@ -430,18 +492,11 @@
 significant_press_media_coverage ↑ (0.62)</t>
   </si>
   <si>
-    <t>nasdaq_leadership ↑ (2.88)
-previous_startup_funding_experience_as_ceo ↑ (3.00)
-previous_startup_funding_experience_as_nonceo ↑ (1.50)
-investor_quality_prior_startup ↑ (1.80)
-big_leadership ↑ (1.19)</t>
-  </si>
-  <si>
     <t>tier_1_VC_experience ↑ (0.99)
-VC_experience ↑ (1.54)
-nasdaq_leadership ↑ (1.05)
-previous_startup_funding_experience_as_ceo ↑ (1.65)
-investor_quality_prior_startup ↑ (1.08)</t>
+VC_experience ↑ (1.41)
+worked_at_consultancy ↑ (0.66)
+education_institution ↑ (1.59)
+education_level ↑ (0.77)</t>
   </si>
   <si>
     <t>previous_startup_funding_experience_as_nonceo ↑ (3.93)
@@ -451,39 +506,53 @@
 google_experience ↑ (0.12)</t>
   </si>
   <si>
+    <t>nasdaq_leadership ↑ (2.88)
+previous_startup_funding_experience_as_ceo ↑ (3.12)
+investor_quality_prior_startup ↑ (1.80)
+big_leadership ↑ (1.47)
+previous_startup_funding_experience_as_nonceo ↑ (1.08)</t>
+  </si>
+  <si>
     <t>previous_startup_funding_experience_as_ceo ↑ (3.72)
-investor_quality_prior_startup ↑ (1.48)
-ceo_experience ↑ (0.44)
-board_advisor_roles ↑ (0.28)
-ten_thousand_hours_of_mastery ↑ (0.30)</t>
+investor_quality_prior_startup ↑ (1.63)
+press_media_coverage_count ↑ (0.98)
+significant_press_media_coverage ↑ (0.62)
+industry_achievements ↑ (0.89)</t>
+  </si>
+  <si>
+    <t>nasdaq_leadership ↑ (2.88)
+big_leadership ↑ (2.68)
+bigtech_leadership ↑ (1.12)
+nasdaq_company_experience ↑ (0.78)
+yoe ↑ (18.78)</t>
   </si>
   <si>
     <t>previous_startup_funding_experience_as_ceo ↑ (3.72)
-investor_quality_prior_startup ↑ (1.66)
-press_media_coverage_count ↑ (0.92)
-significant_press_media_coverage ↑ (0.60)
-industry_achievements ↑ (0.97)</t>
+investor_quality_prior_startup ↑ (1.72)
+bigtech_leadership ↑ (0.55)
+big_tech_experience ↑ (0.67)
+big_tech_position ↑ (1.93)</t>
   </si>
   <si>
     <t>nasdaq_leadership ↑ (2.88)
-big_leadership ↑ (2.30)
-bigtech_leadership ↑ (0.92)
-nasdaq_company_experience ↑ (0.76)
-board_advisor_roles ↑ (0.54)</t>
-  </si>
-  <si>
-    <t>previous_startup_funding_experience_as_ceo ↑ (3.40)
-investor_quality_prior_startup ↑ (1.61)
-bigtech_leadership ↑ (0.47)
-big_tech_experience ↑ (0.59)
-big_tech_position ↑ (1.77)</t>
+big_leadership ↑ (1.92)
+bigtech_leadership ↑ (0.73)
+nasdaq_company_experience ↑ (0.73)
+board_advisor_roles ↑ (0.57)</t>
   </si>
   <si>
     <t>tier_1_VC_experience ↑ (0.99)
-VC_experience ↑ (1.33)
-worked_at_bank ↑ (0.53)
-technical_leadership_roles ↓ (0.37)
-education_institution ↑ (0.97)</t>
+VC_experience ↑ (1.21)
+big_leadership ↑ (0.47)
+education_level ↓ (0.78)
+emotional_intelligence ↓ (0.57)</t>
+  </si>
+  <si>
+    <t>previous_startup_funding_experience_as_ceo ↑ (3.72)
+investor_quality_prior_startup ↑ (1.42)
+yoe ↑ (11.78)
+ten_thousand_hours_of_mastery ↑ (0.47)
+ceo_experience ↑ (0.48)</t>
   </si>
   <si>
     <t>VC_experience ↑ (1.91)
@@ -493,6 +562,13 @@
 career_growth ↑ (0.18)</t>
   </si>
   <si>
+    <t>previous_startup_funding_experience_as_ceo ↑ (3.72)
+investor_quality_prior_startup ↑ (1.70)
+press_media_coverage_count ↑ (0.82)
+significant_press_media_coverage ↑ (0.57)
+board_advisor_roles ↑ (0.65)</t>
+  </si>
+  <si>
     <t>nasdaq_leadership ↑ (1.38)
 nasdaq_company_experience ↑ (0.78)
 angel_experience ↑ (0.44)
@@ -500,6 +576,13 @@
 press_media_coverage_count ↑ (0.57)</t>
   </si>
   <si>
+    <t>risk_tolerance ↓ (1.36)
+adaptability ↓ (1.40)
+perseverance ↓ (1.41)
+career_growth ↓ (0.72)
+vision ↓ (0.84)</t>
+  </si>
+  <si>
     <t>education_institution ↑ (2.14)
 education_level ↑ (0.77)
 number_of_companies ↓ (1.86)
@@ -507,6 +590,13 @@
 number_of_roles ↓ (1.79)</t>
   </si>
   <si>
+    <t>tier_1_VC_experience ↑ (0.99)
+VC_experience ↑ (1.44)
+angel_experience ↑ (0.49)
+board_advisor_roles ↑ (0.54)
+number_of_companies ↑ (3.38)</t>
+  </si>
+  <si>
     <t>nasdaq_leadership ↑ (1.20)
 nasdaq_company_experience ↑ (0.78)
 big_leadership ↑ (0.53)
@@ -514,18 +604,11 @@
 technical_leadership_roles ↑ (0.44)</t>
   </si>
   <si>
-    <t>adaptability ↓ (1.42)
-risk_tolerance ↓ (1.32)
-career_growth ↓ (0.73)
-perseverance ↓ (1.41)
-education_institution ↑ (2.14)</t>
-  </si>
-  <si>
-    <t>education_field_of_study ↓ (1.59)
-extroversion ↓ (1.05)
-technical_skills ↓ (0.55)
-adaptability ↓ (0.90)
-education_level ↓ (1.07)</t>
+    <t>perseverance ↓ (1.23)
+adaptability ↓ (1.18)
+extroversion ↓ (0.99)
+technical_leadership_roles ↑ (0.63)
+risk_tolerance ↓ (0.90)</t>
   </si>
   <si>
     <t>big_tech_experience ↑ (0.65)
@@ -535,6 +618,13 @@
 microsoft_experience ↑ (0.14)</t>
   </si>
   <si>
+    <t>adaptability ↓ (1.44)
+career_growth ↓ (0.74)
+perseverance ↓ (1.40)
+risk_tolerance ↓ (1.29)
+education_institution ↑ (2.14)</t>
+  </si>
+  <si>
     <t>education_institution ↑ (2.14)
 education_level ↑ (0.68)
 number_of_companies ↑ (1.70)
@@ -563,11 +653,11 @@
 industry_achievements ↑ (0.63)</t>
   </si>
   <si>
-    <t>risk_tolerance ↓ (1.15)
-vision ↓ (0.75)
-perseverance ↓ (1.03)
-startup_experience ↓ (0.49)
-adaptability ↓ (0.93)</t>
+    <t>extroversion ↓ (0.90)
+adaptability ↓ (0.88)
+vision ↓ (0.53)
+risk_tolerance ↓ (0.71)
+perseverance ↓ (0.76)</t>
   </si>
   <si>
     <t>career_growth ↑ (0.16)
@@ -606,45 +696,57 @@
     <t>Cluster 5</t>
   </si>
   <si>
+    <t>└── 5.4</t>
+  </si>
+  <si>
     <t>└── 5.2</t>
   </si>
   <si>
     <t>└── 5.1</t>
   </si>
   <si>
+    <t>└── 5.3</t>
+  </si>
+  <si>
     <t>Cluster 3</t>
   </si>
   <si>
+    <t>└── 3.6</t>
+  </si>
+  <si>
+    <t>└── 3.3</t>
+  </si>
+  <si>
+    <t>└── 3.7</t>
+  </si>
+  <si>
     <t>└── 3.5</t>
   </si>
   <si>
-    <t>└── 3.6</t>
-  </si>
-  <si>
-    <t>└── 3.3</t>
+    <t>└── 3.2</t>
   </si>
   <si>
     <t>└── 3.4</t>
   </si>
   <si>
-    <t>└── 3.2</t>
-  </si>
-  <si>
     <t>└── 3.1</t>
   </si>
   <si>
     <t>Cluster 1</t>
   </si>
   <si>
+    <t>└── 1.7</t>
+  </si>
+  <si>
+    <t>└── 1.5</t>
+  </si>
+  <si>
+    <t>└── 1.3</t>
+  </si>
+  <si>
     <t>└── 1.6</t>
   </si>
   <si>
-    <t>└── 1.5</t>
-  </si>
-  <si>
-    <t>└── 1.3</t>
-  </si>
-  <si>
     <t>└── 1.2</t>
   </si>
   <si>
@@ -660,6 +762,9 @@
     <t>└── 2.5</t>
   </si>
   <si>
+    <t>└── 2.6</t>
+  </si>
+  <si>
     <t>└── 2.3</t>
   </si>
   <si>
@@ -681,6 +786,9 @@
     <t>└── 4.4</t>
   </si>
   <si>
+    <t>└── 4.7</t>
+  </si>
+  <si>
     <t>└── 4.2</t>
   </si>
   <si>
@@ -693,39 +801,51 @@
     <t>└── 4.1</t>
   </si>
   <si>
-    <t>technical_leadership_roles &gt; 0.50</t>
-  </si>
-  <si>
-    <t>technical_leadership_roles &lt;= 0.50</t>
-  </si>
-  <si>
-    <t>nasdaq_leadership &gt; 2.50 AND investor_quality_prior_startup &gt; 1.50 AND yoe &lt;= 16.13</t>
-  </si>
-  <si>
-    <t>nasdaq_leadership &gt; 2.50 AND investor_quality_prior_startup &gt; 1.50 AND yoe &gt; 16.13</t>
+    <t>previous_startup_funding_experience_as_ceo &gt; 2.50</t>
+  </si>
+  <si>
+    <t>previous_startup_funding_experience_as_ceo &lt;= 2.50 AND emotional_intelligence &lt;= 0.50 AND education_level &gt; 1.50</t>
+  </si>
+  <si>
+    <t>previous_startup_funding_experience_as_ceo &lt;= 2.50 AND emotional_intelligence &lt;= 0.50 AND education_level &lt;= 1.50</t>
+  </si>
+  <si>
+    <t>previous_startup_funding_experience_as_ceo &lt;= 2.50 AND emotional_intelligence &gt; 0.50</t>
+  </si>
+  <si>
+    <t>nasdaq_leadership &gt; 2.50 AND investor_quality_prior_startup &gt; 1.50 AND yoe &lt;= 27.74</t>
   </si>
   <si>
     <t>nasdaq_leadership &lt;= 2.50 AND previous_startup_funding_experience_as_nonceo &gt; 3.50</t>
   </si>
   <si>
-    <t>nasdaq_leadership &gt; 2.50 AND investor_quality_prior_startup &lt;= 1.50</t>
-  </si>
-  <si>
-    <t>nasdaq_leadership &lt;= 2.50 AND previous_startup_funding_experience_as_nonceo &lt;= 3.50 AND previous_startup_funding_experience_as_ceo &gt; 2.50</t>
-  </si>
-  <si>
-    <t>nasdaq_leadership &lt;= 2.50 AND previous_startup_funding_experience_as_nonceo &lt;= 3.50 AND previous_startup_funding_experience_as_ceo &lt;= 2.50</t>
+    <t>nasdaq_leadership &gt; 2.50 AND investor_quality_prior_startup &gt; 1.50 AND yoe &gt; 27.74</t>
+  </si>
+  <si>
+    <t>nasdaq_leadership &gt; 2.50 AND investor_quality_prior_startup &lt;= 1.50 AND yoe &gt; 25.85</t>
+  </si>
+  <si>
+    <t>nasdaq_leadership &lt;= 2.50 AND previous_startup_funding_experience_as_nonceo &lt;= 3.50 AND previous_startup_funding_experience_as_ceo &gt; 3.50</t>
+  </si>
+  <si>
+    <t>nasdaq_leadership &gt; 2.50 AND investor_quality_prior_startup &lt;= 1.50 AND yoe &lt;= 25.85</t>
+  </si>
+  <si>
+    <t>nasdaq_leadership &lt;= 2.50 AND previous_startup_funding_experience_as_nonceo &lt;= 3.50 AND previous_startup_funding_experience_as_ceo &lt;= 3.50</t>
   </si>
   <si>
     <t>previous_startup_funding_experience_as_ceo &gt; 3.50 AND nasdaq_company_experience &gt; 0.50</t>
   </si>
   <si>
-    <t>previous_startup_funding_experience_as_ceo &gt; 3.50 AND nasdaq_company_experience &lt;= 0.50</t>
+    <t>previous_startup_funding_experience_as_ceo &gt; 3.50 AND nasdaq_company_experience &lt;= 0.50 AND yoe &lt;= 17.47</t>
   </si>
   <si>
     <t>previous_startup_funding_experience_as_ceo &lt;= 3.50 AND VC_experience &gt; 1.50 AND number_of_roles &lt;= 5.50</t>
   </si>
   <si>
+    <t>previous_startup_funding_experience_as_ceo &gt; 3.50 AND nasdaq_company_experience &lt;= 0.50 AND yoe &gt; 17.47</t>
+  </si>
+  <si>
     <t>previous_startup_funding_experience_as_ceo &lt;= 3.50 AND VC_experience &lt;= 1.50 AND nasdaq_leadership &gt; 0.50</t>
   </si>
   <si>
@@ -735,7 +855,10 @@
     <t>previous_startup_funding_experience_as_ceo &lt;= 3.50 AND VC_experience &lt;= 1.50 AND nasdaq_leadership &lt;= 0.50</t>
   </si>
   <si>
-    <t>previous_startup_funding_experience_as_ceo &gt; 3.50</t>
+    <t>previous_startup_funding_experience_as_ceo &gt; 3.50 AND yoe &lt;= 16.79</t>
+  </si>
+  <si>
+    <t>previous_startup_funding_experience_as_ceo &gt; 3.50 AND yoe &gt; 16.79</t>
   </si>
   <si>
     <t>previous_startup_funding_experience_as_ceo &lt;= 3.50 AND education_institution &gt; 3.50 AND number_of_companies &lt;= 3.50</t>
@@ -750,16 +873,19 @@
     <t>previous_startup_funding_experience_as_ceo &lt;= 3.50 AND education_institution &lt;= 3.50 AND nasdaq_leadership &lt;= 0.50</t>
   </si>
   <si>
-    <t>education_institution &gt; 3.50 AND education_field_of_study &gt; 2.50</t>
-  </si>
-  <si>
-    <t>education_institution &lt;= 3.50 AND career_growth &gt; 0.50 AND number_of_leadership_roles &gt; 1.50</t>
+    <t>education_institution &gt; 3.50 AND education_field_of_study &gt; 2.50 AND yoe &lt;= 10.94</t>
+  </si>
+  <si>
+    <t>education_institution &lt;= 3.50 AND career_growth &gt; 0.50 AND technical_leadership_roles &gt; 0.50</t>
+  </si>
+  <si>
+    <t>education_institution &gt; 3.50 AND education_field_of_study &gt; 2.50 AND yoe &gt; 10.94</t>
   </si>
   <si>
     <t>education_institution &lt;= 3.50 AND career_growth &lt;= 0.50 AND childhood_entrepreneurship &gt; 0.50</t>
   </si>
   <si>
-    <t>education_institution &lt;= 3.50 AND career_growth &gt; 0.50 AND number_of_leadership_roles &lt;= 1.50</t>
+    <t>education_institution &lt;= 3.50 AND career_growth &gt; 0.50 AND technical_leadership_roles &lt;= 0.50</t>
   </si>
   <si>
     <t>education_institution &gt; 3.50 AND education_field_of_study &lt;= 2.50</t>
@@ -1319,7 +1445,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1362,228 +1488,228 @@
         <v>35</v>
       </c>
       <c r="C2">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="H2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="I2" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
         <v>86</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="H3" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="H4" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="I4" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>38</v>
       </c>
       <c r="C5">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H5" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="I5" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
       </c>
       <c r="C6">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="H6" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="I6" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>40</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="G7" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H7" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="I7" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
       </c>
       <c r="C8">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="H8" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="I8" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>42</v>
       </c>
       <c r="C9">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H9" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="I9" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1594,112 +1720,112 @@
         <v>43</v>
       </c>
       <c r="C10">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="I10" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>44</v>
       </c>
       <c r="C11">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="H11" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="I11" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>45</v>
       </c>
       <c r="C12">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>46</v>
       </c>
       <c r="C13">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="H13" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="I13" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1710,141 +1836,141 @@
         <v>47</v>
       </c>
       <c r="C14">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="G14" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="H14" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
         <v>48</v>
       </c>
       <c r="C15">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D15">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" t="s">
         <v>17</v>
       </c>
-      <c r="E15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" t="s">
-        <v>113</v>
-      </c>
       <c r="I15" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
         <v>49</v>
       </c>
       <c r="C16">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="G16" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
         <v>50</v>
       </c>
       <c r="C17">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="G17" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="I17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
         <v>51</v>
       </c>
       <c r="C18">
-        <v>882</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F18" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="G18" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="H18" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="I18" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1855,228 +1981,402 @@
         <v>52</v>
       </c>
       <c r="C19">
-        <v>336</v>
+        <v>164</v>
       </c>
       <c r="D19">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F19" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="G19" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="H19" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I19" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
         <v>53</v>
       </c>
       <c r="C20">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F20" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="H20" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="I20" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
         <v>54</v>
       </c>
       <c r="C21">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F21" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="H21" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="I21" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
         <v>55</v>
       </c>
       <c r="C22">
-        <v>1268</v>
+        <v>24</v>
       </c>
       <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
         <v>86</v>
       </c>
-      <c r="E22" t="s">
-        <v>80</v>
-      </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="G22" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="H22" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="I22" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
         <v>56</v>
       </c>
       <c r="C23">
-        <v>107</v>
+        <v>894</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="H23" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="I23" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
         <v>57</v>
       </c>
       <c r="C24">
-        <v>3873</v>
+        <v>25</v>
       </c>
       <c r="D24">
-        <v>187</v>
+        <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F24" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="G24" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="H24" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="I24" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
         <v>58</v>
       </c>
       <c r="C25">
-        <v>31</v>
+        <v>336</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F25" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="G25" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="H25" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="I25" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
         <v>59</v>
       </c>
       <c r="C26">
+        <v>66</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27">
+        <v>70</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28">
+        <v>1268</v>
+      </c>
+      <c r="D28">
+        <v>86</v>
+      </c>
+      <c r="E28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>131</v>
+      </c>
+      <c r="H28" t="s">
+        <v>139</v>
+      </c>
+      <c r="I28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29">
+        <v>139</v>
+      </c>
+      <c r="D29">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30">
+        <v>3873</v>
+      </c>
+      <c r="D30">
+        <v>187</v>
+      </c>
+      <c r="E30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" t="s">
+        <v>133</v>
+      </c>
+      <c r="H30" t="s">
+        <v>140</v>
+      </c>
+      <c r="I30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31">
+        <v>31</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" t="s">
+        <v>134</v>
+      </c>
+      <c r="H31" t="s">
+        <v>129</v>
+      </c>
+      <c r="I31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32">
         <v>1293</v>
       </c>
-      <c r="D26">
+      <c r="D32">
         <v>36</v>
       </c>
-      <c r="E26" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" t="s">
-        <v>105</v>
-      </c>
-      <c r="G26" t="s">
-        <v>112</v>
-      </c>
-      <c r="H26" t="s">
-        <v>125</v>
-      </c>
-      <c r="I26" t="s">
-        <v>150</v>
+      <c r="E32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" t="s">
+        <v>121</v>
+      </c>
+      <c r="G32" t="s">
+        <v>126</v>
+      </c>
+      <c r="H32" t="s">
+        <v>141</v>
+      </c>
+      <c r="I32" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +2386,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2105,7 +2405,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="40" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -2132,15 +2432,15 @@
         <v>7</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="80" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="C2" s="3">
         <v>103</v>
@@ -2167,983 +2467,1175 @@
     </row>
     <row r="3" spans="1:10" ht="80" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="C3" s="3">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="80" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="C4" s="3">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="60" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="3">
         <v>20</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="60" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="D5" s="3">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="80" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>158</v>
+      <c r="A6" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="C6" s="3">
+        <v>38</v>
+      </c>
+      <c r="D6" s="3">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="60" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="80" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="3">
         <v>1066</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D8" s="3">
         <v>217</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="100" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="3">
-        <v>33</v>
-      </c>
-      <c r="D7" s="3">
-        <v>31</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="100" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C8" s="3">
-        <v>35</v>
-      </c>
-      <c r="D8" s="3">
-        <v>24</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>188</v>
-      </c>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="100" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="C9" s="3">
+        <v>48</v>
+      </c>
+      <c r="D9" s="3">
+        <v>43</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="100" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="3">
         <v>36</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D10" s="3">
         <v>22</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="E10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="100" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="3">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="60" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="3">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="80" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="3">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="80" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="3">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="H14" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="80" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="80" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="3">
-        <v>42</v>
-      </c>
-      <c r="D10" s="3">
-        <v>18</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="C15" s="3">
+        <v>894</v>
+      </c>
+      <c r="D15" s="3">
         <v>110</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="E15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="60" customHeight="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="80" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="80" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C11" s="3">
-        <v>38</v>
-      </c>
-      <c r="D11" s="3">
-        <v>14</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="J11" s="3" t="s">
+      <c r="C17" s="3">
+        <v>1525</v>
+      </c>
+      <c r="D17" s="3">
+        <v>170</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" ht="100" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="80" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C12" s="3">
-        <v>882</v>
-      </c>
-      <c r="D12" s="3">
-        <v>108</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="C18" s="3">
+        <v>31</v>
+      </c>
+      <c r="D18" s="3">
+        <v>22</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="G18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="100" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="60" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" ht="80" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1525</v>
-      </c>
-      <c r="D14" s="3">
-        <v>170</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" ht="100" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="C19" s="3">
         <v>31</v>
       </c>
-      <c r="D15" s="3">
-        <v>22</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="100" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C16" s="3">
-        <v>51</v>
-      </c>
-      <c r="D16" s="3">
-        <v>23</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="80" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" s="3">
-        <v>69</v>
-      </c>
-      <c r="D17" s="3">
-        <v>22</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="D19" s="3">
         <v>17</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="80" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C18" s="3">
-        <v>40</v>
-      </c>
-      <c r="D18" s="3">
-        <v>11</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="60" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C19" s="3">
-        <v>66</v>
-      </c>
-      <c r="D19" s="3">
-        <v>6</v>
-      </c>
       <c r="E19" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="80" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="C20" s="3">
-        <v>1268</v>
+        <v>69</v>
       </c>
       <c r="D20" s="3">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="100" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="3">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F21" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="80" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C22" s="3">
+        <v>40</v>
+      </c>
+      <c r="D22" s="3">
+        <v>11</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="60" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" ht="80" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C22" s="3">
-        <v>4504</v>
-      </c>
-      <c r="D22" s="3">
-        <v>301</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="H22" s="3" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" ht="100" customHeight="1">
+        <v>157</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="60" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="C23" s="3">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D23" s="3">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="80" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="C24" s="3">
-        <v>164</v>
+        <v>1268</v>
       </c>
       <c r="D24" s="3">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="80" customHeight="1">
-      <c r="A25" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B25" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="60" customHeight="1">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" ht="80" customHeight="1">
+      <c r="A26" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C25" s="3">
-        <v>81</v>
-      </c>
-      <c r="D25" s="3">
-        <v>17</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="80" customHeight="1">
-      <c r="A26" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>176</v>
+      <c r="B26" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="C26" s="3">
-        <v>336</v>
+        <v>4504</v>
       </c>
       <c r="D26" s="3">
-        <v>33</v>
+        <v>301</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>202</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="80" customHeight="1">
       <c r="A27" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C27" s="3">
+        <v>29</v>
+      </c>
+      <c r="D27" s="3">
+        <v>21</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="80" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C28" s="3">
+        <v>21</v>
+      </c>
+      <c r="D28" s="3">
+        <v>7</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C27" s="3">
+      <c r="J28" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="80" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" s="3">
+        <v>164</v>
+      </c>
+      <c r="D29" s="3">
+        <v>36</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="80" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C30" s="3">
+        <v>81</v>
+      </c>
+      <c r="D30" s="3">
+        <v>17</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="80" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C31" s="3">
+        <v>336</v>
+      </c>
+      <c r="D31" s="3">
+        <v>33</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="80" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C32" s="3">
         <v>3873</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D32" s="3">
         <v>187</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="60" customHeight="1">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" ht="60" customHeight="1">
-      <c r="A29" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C29" s="3">
+      <c r="E32" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="60" customHeight="1">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" ht="60" customHeight="1">
+      <c r="A34" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C34" s="3">
         <v>1602</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D34" s="3">
         <v>64</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" ht="60" customHeight="1">
-      <c r="A30" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C30" s="3">
-        <v>45</v>
-      </c>
-      <c r="D30" s="3">
-        <v>8</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="60" customHeight="1">
-      <c r="A31" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C31" s="3">
-        <v>56</v>
-      </c>
-      <c r="D31" s="3">
-        <v>7</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="60" customHeight="1">
-      <c r="A32" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C32" s="3">
-        <v>70</v>
-      </c>
-      <c r="D32" s="3">
-        <v>6</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="60" customHeight="1">
-      <c r="A33" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C33" s="3">
-        <v>107</v>
-      </c>
-      <c r="D33" s="3">
-        <v>6</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="60" customHeight="1">
-      <c r="A34" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C34" s="3">
-        <v>31</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>208</v>
-      </c>
+      <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" ht="60" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="C35" s="3">
+        <v>20</v>
+      </c>
+      <c r="D35" s="3">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="60" customHeight="1">
+      <c r="A36" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C36" s="3">
+        <v>24</v>
+      </c>
+      <c r="D36" s="3">
+        <v>4</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="60" customHeight="1">
+      <c r="A37" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C37" s="3">
+        <v>25</v>
+      </c>
+      <c r="D37" s="3">
+        <v>3</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="60" customHeight="1">
+      <c r="A38" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C38" s="3">
+        <v>70</v>
+      </c>
+      <c r="D38" s="3">
+        <v>6</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="60" customHeight="1">
+      <c r="A39" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C39" s="3">
+        <v>139</v>
+      </c>
+      <c r="D39" s="3">
+        <v>9</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="60" customHeight="1">
+      <c r="A40" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40" s="3">
+        <v>31</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="60" customHeight="1">
+      <c r="A41" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C41" s="3">
         <v>1293</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D41" s="3">
         <v>36</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="60" customHeight="1">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="60" customHeight="1">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
